--- a/target/test-classes/excelData/LoginTest.xlsx
+++ b/target/test-classes/excelData/LoginTest.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thameeramalinga/DeveloperStackQA/FinalFW/DevStackAutomationFramework/src/test/resources/excelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E665483A-7081-9645-B17D-A4B72CEF7B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBC011C-6476-6D46-9F49-DE630DA0B188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="2440" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{1BC3C561-4519-DC4B-97F5-0E0D12BD283E}"/>
+    <workbookView xWindow="4940" yWindow="2440" windowWidth="28040" windowHeight="17440" xr2:uid="{1BC3C561-4519-DC4B-97F5-0E0D12BD283E}"/>
   </bookViews>
   <sheets>
     <sheet name="loginTest" sheetId="1" r:id="rId1"/>
-    <sheet name="loginFailTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>userName</t>
   </si>
@@ -49,18 +48,6 @@
   </si>
   <si>
     <t>pointofsale</t>
-  </si>
-  <si>
-    <t>admin1</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>pt</t>
-  </si>
-  <si>
-    <t>ad</t>
   </si>
 </sst>
 </file>
@@ -434,7 +421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8FA32C-E2EF-4D4E-A323-FA8DBCB49818}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -459,51 +446,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA880AC-170C-D942-96E6-E2F39E8AE135}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>